--- a/biology/Zoologie/Hydrophis_bituberculatus/Hydrophis_bituberculatus.xlsx
+++ b/biology/Zoologie/Hydrophis_bituberculatus/Hydrophis_bituberculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis bituberculatus ou Hydrophide de Peter est une espèce de serpents marins de la famille des Elapidae[1].
-C'est un serpent marin rare et venimeux très peu étudier. On pense qu'il chasse assez au large car il est parfois capturé par les chaluts à crevettes sur les fonds de sable et de graviers[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis bituberculatus ou Hydrophide de Peter est une espèce de serpents marins de la famille des Elapidae.
+C'est un serpent marin rare et venimeux très peu étudier. On pense qu'il chasse assez au large car il est parfois capturé par les chaluts à crevettes sur les fonds de sable et de graviers.  
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans l'océan Indien dans les eaux du Sri Lanka et de la côte ouest de la Thaïlande[1], principalement autour de l'île de Ko Phuket. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans l'océan Indien dans les eaux du Sri Lanka et de la côte ouest de la Thaïlande, principalement autour de l'île de Ko Phuket. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1872 : Über den Hydrus fasciatus Schneider und einige andere Seeschlangen. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1872, p. 848-861 (texte intégral).</t>
         </is>
